--- a/Mifos Automation Excels/Client/2545-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-NONE-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2545-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-NONE-Newcreateloan1.xlsx
@@ -212,7 +212,7 @@
     <t>principal1</t>
   </si>
   <si>
-    <t>2545-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-NONE</t>
+    <t>2545-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-NONE-1st</t>
   </si>
 </sst>
 </file>
